--- a/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B596DA4-4279-4BD2-9E6D-AC480586FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="810" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20640" windowHeight="8987"/>
   </bookViews>
   <sheets>
     <sheet name="安全事项导入模板" sheetId="1" r:id="rId1"/>
@@ -20,33 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>安全事项导入模板</t>
   </si>
   <si>
-    <t>安全事项导入模板
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全事项导入模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
-字段说明：
-1.专业：必填字段
-2.安全事项分类：必填字段，必须是系统已有分类，注意填写的分类名称与系统保持一致
-3.安全事项：必填字段
-4.安全事项措施：必填字段
-5.事项状态：必填字段，分为有效、无效两种</t>
+字段说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.专业：必填字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业子系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：如果有子系统必填，没有子系统非必填
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全事项内容和措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：必填字段
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事项状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：必填字段，分为有效、无效两种</t>
+    </r>
   </si>
   <si>
     <t>专业</t>
   </si>
   <si>
-    <t>安全事项分类</t>
+    <t>专业子系统</t>
   </si>
   <si>
-    <t>安全事项内容</t>
-  </si>
-  <si>
-    <t>安全事项措施</t>
+    <t>安全事项内容和措施</t>
   </si>
   <si>
     <t>事项状态</t>
@@ -55,8 +139,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +177,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +346,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -125,65 +545,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -213,9 +580,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -223,45 +845,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,69 +1214,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="B11:D16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="61.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75"/>
-    <col min="7" max="7" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="3" width="39.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="159" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BBE3E1-E291-4573-96E0-60D890CF26B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0669176-39F6-4A17-BF1E-B972D1921A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="2295" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="930" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安全事项导入模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>安全事项导入模板</t>
   </si>
@@ -150,6 +150,10 @@
       </rPr>
       <t>：必填字段，分为有效、无效两种</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全事项摘要</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -233,12 +237,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -251,46 +270,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -299,36 +279,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,59 +608,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75"/>
+    <col min="2" max="4" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="11.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csSafetyAttention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0669176-39F6-4A17-BF1E-B972D1921A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1488F0-8509-4AB1-828C-160831679D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="930" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安全事项导入模板" sheetId="1" r:id="rId1"/>
@@ -37,123 +37,115 @@
     <t>事项状态</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>安全事项导入模板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-填写须知：
-1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
-2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
-字段说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.专业：必填字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专业子系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：如果有子系统必填，没有子系统非必填
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>安全事项内容和措施</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：必填字段
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>事项状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：必填字段，分为有效、无效两种</t>
-    </r>
+    <t>安全事项摘要</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>安全事项摘要</t>
+    <r>
+      <t>安全事项导入模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+填写须知：
+1.请勿增加删除或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+字段说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.专业：必填字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业子系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：如果有子系统必填，没有子系统非必填
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全事项内容和措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：必填字段
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事项状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：必填字段，分为有效、无效两种</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -283,6 +275,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,18 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +603,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,37 +614,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
